--- a/BONDS_PROVA1.xlsx
+++ b/BONDS_PROVA1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepiergallini/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6664D-ECE0-F040-A226-3ED2FF4DB321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8ACFC0-7C40-124B-B360-5D3CAF675A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="60" windowWidth="27680" windowHeight="17440" xr2:uid="{EEE06C58-0EE4-B64C-8F0E-23710A77B701}"/>
+    <workbookView xWindow="860" yWindow="60" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{EEE06C58-0EE4-B64C-8F0E-23710A77B701}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="week1" sheetId="1" r:id="rId1"/>
+    <sheet name="week2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ITALY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>PRICE</t>
   </si>
@@ -54,30 +52,19 @@
     <t>PORT</t>
   </si>
   <si>
-    <t>COUPON</t>
-  </si>
-  <si>
     <t>BOND</t>
   </si>
   <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>BRAZ</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>GER</t>
+    <t>BTP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -108,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AC4C3B-310D-AF4E-8071-81B6261B8301}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,26 +424,23 @@
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>129.69900000000001</v>
@@ -464,15 +449,12 @@
         <v>15.308</v>
       </c>
       <c r="D2">
-        <v>2782</v>
-      </c>
-      <c r="E2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>110.6345</v>
@@ -481,15 +463,12 @@
         <v>9.4629999999999992</v>
       </c>
       <c r="D3">
-        <v>1021</v>
-      </c>
-      <c r="E3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.0209999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>103.068</v>
@@ -498,66 +477,78 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="D4">
-        <v>1063</v>
-      </c>
-      <c r="E4">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>174</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>112</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>101</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>3500</v>
+        <v>1.0629999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5532220-B4B3-034F-A479-0DF4410D1571}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>112.765</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15.29</v>
+      </c>
+      <c r="D2">
+        <v>2.782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>110.697</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.4459999999999997</v>
+      </c>
+      <c r="D3">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>103.25700000000001</v>
+      </c>
+      <c r="C4">
+        <v>9.7609999999999992</v>
+      </c>
+      <c r="D4">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
